--- a/slides/lecture02.xlsx
+++ b/slides/lecture02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1855" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AC9A17C-B17C-4EF9-BE78-87BDE9008B34}"/>
+  <xr:revisionPtr revIDLastSave="1911" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D516AA5-A48C-4B81-BBCE-45085C04AB6D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{58F8946E-589F-43AA-8127-245E86DA602D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{58F8946E-589F-43AA-8127-245E86DA602D}"/>
   </bookViews>
   <sheets>
     <sheet name="Shirt sales (i) (solutions)" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="2 Conditionals" sheetId="14" r:id="rId4"/>
     <sheet name="3 Conditional aggregation" sheetId="11" r:id="rId5"/>
     <sheet name="4 Basic text manipulation " sheetId="12" r:id="rId6"/>
-    <sheet name="5 More text manipulation" sheetId="13" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId7"/>
+    <sheet name="5 More text manipulation" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="502">
   <si>
     <t>Male</t>
   </si>
@@ -1800,6 +1801,9 @@
   </si>
   <si>
     <t>Make sure to test the formula you use!</t>
+  </si>
+  <si>
+    <t>Sum:</t>
   </si>
 </sst>
 </file>
@@ -2136,7 +2140,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2151,32 +2155,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2186,6 +2187,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -3251,7 +3256,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>1. You need to calcualte the total revenue and place it underneath the total revenue tag.</a:t>
+            <a:t>1. You need to calculate the total revenue and place it underneath the total revenue tag.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -14718,8 +14723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC0C6B7-48AE-4BCD-ADF0-20CF516D0AD5}">
   <dimension ref="A13:H34"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A16" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14983,7 +14988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0FA58D-AD69-48C7-878A-BFCF834687E2}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19051,8 +19056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF3F554-9FA9-4B23-99A2-5E258CD0F3F7}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19061,146 +19066,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>481</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>489</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>488</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>487</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>483</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>490</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="33" t="s">
         <v>499</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>493</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -19216,13 +19221,13 @@
       <c r="A22" t="s">
         <v>496</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -19230,72 +19235,67 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="31" t="s">
         <v>482</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="31" t="s">
         <v>485</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A7:J7"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="C18:G18"/>
@@ -19304,6 +19304,11 @@
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A7:J7"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="C22:G22"/>
   </mergeCells>
@@ -19313,6 +19318,259 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6263BA05-648C-4AA7-B874-773E104E360F}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="B6">
+        <f>SUM(A1:J1)</f>
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <f>SUM(B1:K1)</f>
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <f>SUM(C1:L1)</f>
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <f>SUM(D1:M1)</f>
+        <v>49</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:L6" si="0">SUM(E1:N1)</f>
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>SUM(A2:J2)</f>
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <f>SUM(B2:K2)</f>
+        <v>63</v>
+      </c>
+      <c r="D7">
+        <f>SUM(C2:L2)</f>
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <f>SUM(D2:M2)</f>
+        <v>56</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:L7" si="1">SUM(E2:N2)</f>
+        <v>51</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>SUM(A3:J3)</f>
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <f>SUM(B3:K3)</f>
+        <v>99</v>
+      </c>
+      <c r="D8">
+        <f>SUM(C3:L3)</f>
+        <v>96</v>
+      </c>
+      <c r="E8">
+        <f>SUM(D3:M3)</f>
+        <v>91</v>
+      </c>
+      <c r="F8">
+        <f>SUM(E3:N3)</f>
+        <v>84</v>
+      </c>
+      <c r="G8">
+        <f>SUM(F3:O3)</f>
+        <v>75</v>
+      </c>
+      <c r="H8">
+        <f>SUM(G3:P3)</f>
+        <v>64</v>
+      </c>
+      <c r="I8">
+        <f>SUM(H3:Q3)</f>
+        <v>51</v>
+      </c>
+      <c r="J8">
+        <f>SUM(I3:R3)</f>
+        <v>36</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:L8" si="2">SUM(J3:S3)</f>
+        <v>19</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6839BECC-8213-4F0C-AABA-4EFAA71A9A21}">
   <dimension ref="A1:A3"/>
   <sheetViews>

--- a/slides/lecture02.xlsx
+++ b/slides/lecture02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2738" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD289780-6D26-47B1-993B-8F7CEE88A1B9}"/>
+  <xr:revisionPtr revIDLastSave="2739" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AEA659A-717B-4CB9-A787-6EC7BB5D25F6}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" firstSheet="1" activeTab="1" xr2:uid="{58F8946E-589F-43AA-8127-245E86DA602D}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" tabRatio="965" firstSheet="1" activeTab="1" xr2:uid="{58F8946E-589F-43AA-8127-245E86DA602D}"/>
   </bookViews>
   <sheets>
     <sheet name="Shirt sales" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2595,7 +2595,7 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2635,28 +2635,26 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="7" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="7" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="11"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -11570,7 +11568,7 @@
   <dimension ref="A5:K227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11578,7 +11576,7 @@
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -11588,13 +11586,13 @@
       <c r="B5" s="20" t="s">
         <v>656</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="27">
         <v>0.1</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="27">
         <v>0.15</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="27">
         <v>0.25</v>
       </c>
     </row>
@@ -11703,14 +11701,14 @@
       <c r="K12" s="19"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36" t="s">
+      <c r="E18" s="28"/>
+      <c r="F18" s="29" t="s">
         <v>668</v>
       </c>
-      <c r="G18" s="36"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D19" s="21" t="s">
@@ -20514,8 +20512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF3F554-9FA9-4B23-99A2-5E258CD0F3F7}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D183" sqref="D183"/>
+    <sheetView topLeftCell="B106" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20527,18 +20525,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -20593,18 +20591,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="30" t="s">
         <v>509</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -20673,18 +20671,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -20806,18 +20804,18 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="30" t="s">
         <v>457</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -20902,18 +20900,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="30" t="s">
         <v>455</v>
       </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -21104,18 +21102,18 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25"/>
-      <c r="I90" s="25"/>
-      <c r="J90" s="25"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
     </row>
     <row r="91" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -21149,18 +21147,18 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="25"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
     </row>
     <row r="98" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -21178,7 +21176,7 @@
         <f>SUBSTITUTE(C98,"Airplane","Starship")</f>
         <v>Jefferson Starship is great.</v>
       </c>
-      <c r="E99" s="30" t="s">
+      <c r="E99" s="25" t="s">
         <v>600</v>
       </c>
     </row>
@@ -21196,22 +21194,19 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C103" s="29" t="str">
+      <c r="C103" t="str">
         <f>SUBSTITUTE(C102,"Airplane","Starship")</f>
         <v>When I'm on an airplane, I like listening to Jefferson Starship!</v>
       </c>
-      <c r="E103" s="30" t="s">
+      <c r="E103" s="25" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C104" s="29"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C105" s="29" t="str">
+      <c r="C105" t="str">
         <f>PROPER("When I'm on an airplane, I like listening to Jefferson Airplane!")</f>
         <v>When I'M On An Airplane, I Like Listening To Jefferson Airplane!</v>
       </c>
@@ -21220,105 +21215,102 @@
       <c r="A106" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C106" s="29" t="str">
+      <c r="C106" t="str">
         <f>SUBSTITUTE(C105,"Airplane","Starship")</f>
         <v>When I'M On An Starship, I Like Listening To Jefferson Starship!</v>
       </c>
-      <c r="E106" s="30" t="s">
+      <c r="E106" s="25" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C107" s="29"/>
-    </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C108" s="29" t="str">
+      <c r="C108" t="str">
         <f>SUBSTITUTE(C105,"Airplane","Starship", 2)</f>
         <v>When I'M On An Airplane, I Like Listening To Jefferson Starship!</v>
       </c>
-      <c r="E108" s="30" t="s">
+      <c r="E108" s="25" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C110" s="29" t="str">
+      <c r="C110" t="str">
         <f>SUBSTITUTE(C105,"Airplane","Starship", 1)</f>
         <v>When I'M On An Starship, I Like Listening To Jefferson Airplane!</v>
       </c>
-      <c r="E110" s="30" t="s">
+      <c r="E110" s="25" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="25" t="s">
+      <c r="A112" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="25"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="30"/>
     </row>
     <row r="113" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="27" t="s">
+      <c r="C114" s="34" t="s">
         <v>465</v>
       </c>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="34"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>636</v>
       </c>
-      <c r="C115" s="28">
+      <c r="C115" s="33">
         <f>LEN(A115) - LEN(SUBSTITUTE(A115," ", "")) + 1</f>
         <v>13</v>
       </c>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="33"/>
+      <c r="G115" s="33"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="31" t="s">
+      <c r="C116" s="32" t="s">
         <v>616</v>
       </c>
-      <c r="D116" s="31"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="31"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>617</v>
       </c>
-      <c r="C117" s="28">
+      <c r="C117" s="33">
         <f>LEN(A117) - LEN(SUBSTITUTE(A117," ", "")) + 1</f>
         <v>5</v>
       </c>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="28"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="33"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="C120" s="27" t="s">
+      <c r="C120" s="34" t="s">
         <v>465</v>
       </c>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="27"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="34"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -21330,7 +21322,7 @@
         <v>613</v>
       </c>
       <c r="C122">
-        <f>LEN(A121) - LEN(SUBSTITUTE(A121," ", "")) + 1</f>
+        <f t="shared" ref="C122:C127" si="2">LEN(A121) - LEN(SUBSTITUTE(A121," ", "")) + 1</f>
         <v>10</v>
       </c>
       <c r="D122" t="s">
@@ -21342,7 +21334,7 @@
         <v>614</v>
       </c>
       <c r="C123">
-        <f>LEN(A122) - LEN(SUBSTITUTE(A122," ", "")) + 1</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D123" t="s">
@@ -21354,7 +21346,7 @@
         <v>615</v>
       </c>
       <c r="C124">
-        <f>LEN(A123) - LEN(SUBSTITUTE(A123," ", "")) + 1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D124" t="s">
@@ -21366,7 +21358,7 @@
         <v>462</v>
       </c>
       <c r="C125">
-        <f>LEN(A124) - LEN(SUBSTITUTE(A124," ", "")) + 1</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="D125" t="s">
@@ -21378,7 +21370,7 @@
         <v>463</v>
       </c>
       <c r="C126">
-        <f>LEN(A125) - LEN(SUBSTITUTE(A125," ", "")) + 1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D126" t="s">
@@ -21387,7 +21379,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C127">
-        <f>LEN(A126) - LEN(SUBSTITUTE(A126," ", "")) + 1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D127" t="s">
@@ -21424,18 +21416,18 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="26" t="s">
+      <c r="A134" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="B134" s="26"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="26"/>
-      <c r="E134" s="26"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="26"/>
-      <c r="H134" s="26"/>
-      <c r="I134" s="26"/>
-      <c r="J134" s="26"/>
+      <c r="B134" s="31"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="31"/>
+      <c r="G134" s="31"/>
+      <c r="H134" s="31"/>
+      <c r="I134" s="31"/>
+      <c r="J134" s="31"/>
     </row>
     <row r="135" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -21517,7 +21509,7 @@
         <f>REPLACE("oh my lord",4,2,"your")</f>
         <v>oh your lord</v>
       </c>
-      <c r="E141" s="32" t="s">
+      <c r="E141" s="15" t="s">
         <v>646</v>
       </c>
     </row>
@@ -21532,7 +21524,7 @@
         <f>FIND("my","oh my lord")</f>
         <v>4</v>
       </c>
-      <c r="E142" s="32" t="s">
+      <c r="E142" s="15" t="s">
         <v>647</v>
       </c>
     </row>
@@ -21547,7 +21539,7 @@
         <f>SEARCH("my","oh my lord")</f>
         <v>4</v>
       </c>
-      <c r="E143" s="32" t="s">
+      <c r="E143" s="15" t="s">
         <v>648</v>
       </c>
     </row>
@@ -21576,7 +21568,7 @@
       <c r="D147" s="17"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="33" t="s">
+      <c r="A148" s="26" t="s">
         <v>654</v>
       </c>
       <c r="B148" s="17"/>
@@ -21585,12 +21577,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A90:J90"/>
-    <mergeCell ref="A97:J97"/>
-    <mergeCell ref="A66:J66"/>
     <mergeCell ref="A112:J112"/>
     <mergeCell ref="A134:J134"/>
     <mergeCell ref="A45:J45"/>
@@ -21599,6 +21585,12 @@
     <mergeCell ref="C114:G114"/>
     <mergeCell ref="C117:G117"/>
     <mergeCell ref="C120:G120"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A90:J90"/>
+    <mergeCell ref="A97:J97"/>
+    <mergeCell ref="A66:J66"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/slides/lecture02.xlsx
+++ b/slides/lecture02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2739" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AEA659A-717B-4CB9-A787-6EC7BB5D25F6}"/>
+  <xr:revisionPtr revIDLastSave="2744" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20FBBFCA-30F5-4CA7-932D-F893E8944D1B}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" tabRatio="965" firstSheet="1" activeTab="1" xr2:uid="{58F8946E-589F-43AA-8127-245E86DA602D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="965" firstSheet="1" activeTab="1" xr2:uid="{58F8946E-589F-43AA-8127-245E86DA602D}"/>
   </bookViews>
   <sheets>
     <sheet name="Shirt sales" sheetId="4" r:id="rId1"/>
@@ -2240,20 +2240,80 @@
     <t xml:space="preserve">We can use the LARGE / SMALL function for this! </t>
   </si>
   <si>
-    <t>Relative references: All references change when the formula is moved.</t>
-  </si>
-  <si>
-    <t>Absolute references: No references change when the formula is moved.</t>
-  </si>
-  <si>
-    <t>Mixed references: Only the column or row reference change when the formula is moved.</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Relative references:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> All references change when the formula is moved.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Absolute references:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> No references change when the formula is moved.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mixed references:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Only the column or row reference change when the formula is moved.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2387,6 +2447,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3869,15 +3937,6 @@
             <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:buChar char="•"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>MEDIANIFS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
@@ -4863,10 +4922,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Retrospect">
   <a:themeElements>
@@ -11567,8 +11622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CB08ED-6523-4798-83CC-8DDA2088ECBC}">
   <dimension ref="A5:K227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15851,7 +15906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC0C6B7-48AE-4BCD-ADF0-20CF516D0AD5}">
   <dimension ref="A13:C17"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -16145,7 +16200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0FA58D-AD69-48C7-878A-BFCF834687E2}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection sqref="A1:F201"/>
     </sheetView>
   </sheetViews>
@@ -20384,7 +20439,7 @@
   <dimension ref="A5:C16"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/slides/lecture02.xlsx
+++ b/slides/lecture02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3287" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7C46DBD-6C4E-42D2-81BF-C6260811256C}"/>
+  <xr:revisionPtr revIDLastSave="3474" documentId="8_{29B8196C-0F94-4E63-9C97-551F1F758BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1019218B-C876-44B4-8360-FC2A8B6C8134}"/>
   <bookViews>
-    <workbookView xWindow="-37590" yWindow="-120" windowWidth="37710" windowHeight="21840" tabRatio="965" firstSheet="1" activeTab="1" xr2:uid="{58F8946E-589F-43AA-8127-245E86DA602D}"/>
+    <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" tabRatio="965" firstSheet="1" activeTab="5" xr2:uid="{58F8946E-589F-43AA-8127-245E86DA602D}"/>
   </bookViews>
   <sheets>
     <sheet name="Shirt sales" sheetId="4" r:id="rId1"/>
@@ -1407,9 +1407,6 @@
     <t>How many males with shirt size XL are there?</t>
   </si>
   <si>
-    <t>How many males with shirt size XL or short size L are there?</t>
-  </si>
-  <si>
     <t>What was the maximal sale among females with medium shirt size and sales less than 100?</t>
   </si>
   <si>
@@ -1417,12 +1414,6 @@
   </si>
   <si>
     <t>holding an ORB.</t>
-  </si>
-  <si>
-    <t>=IFS(D19&gt;250000;"😁";D19&gt;100000;"😐";TRUE;"😥")</t>
-  </si>
-  <si>
-    <t>=IF(D19&gt;250000;"😁";IF(D19&gt;100000;"😐";"😥"))</t>
   </si>
   <si>
     <r>
@@ -1532,9 +1523,6 @@
     <t>Calculate the square root of a number.</t>
   </si>
   <si>
-    <t>Get the (natural) logarithm of a number.</t>
-  </si>
-  <si>
     <t>Don't round if you don't have to! You almost never need to round numbers except for presentation</t>
   </si>
   <si>
@@ -1553,9 +1541,6 @@
     <t>want</t>
   </si>
   <si>
-    <t>chocolate</t>
-  </si>
-  <si>
     <t>The cells to the right contains some text. Can you</t>
   </si>
   <si>
@@ -1682,12 +1667,6 @@
     <t>cream.</t>
   </si>
   <si>
-    <t>The ignore second argument defaults to FALSE.</t>
-  </si>
-  <si>
-    <t>=TEXTJOIN(" ";;C68:H68)</t>
-  </si>
-  <si>
     <t>=TEXTJOIN(" ";;C73:J73)</t>
   </si>
   <si>
@@ -1778,16 +1757,7 @@
     <t>Command</t>
   </si>
   <si>
-    <t>=C3 &amp; " " &amp; D3 &amp; " " &amp; E3</t>
-  </si>
-  <si>
-    <t>=C3 &amp; D3 &amp; E3</t>
-  </si>
-  <si>
     <t>Jefferson Airplane is great.</t>
-  </si>
-  <si>
-    <t>=SUBSTITUTE(C98;"Airplane";"Starship")</t>
   </si>
   <si>
     <t>Jefferson Airplane was a psychdelic rock band, but</t>
@@ -2331,12 +2301,42 @@
   <si>
     <t>instance_num decides which ";" you select!</t>
   </si>
+  <si>
+    <t>How many males with shirt size XL or shirt size L are there?</t>
+  </si>
+  <si>
+    <t>Get the base 10 logarithm of a number.</t>
+  </si>
+  <si>
+    <t>chocolat</t>
+  </si>
+  <si>
+    <t>Title case:</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>Lord Of The Rings</t>
+  </si>
+  <si>
+    <t>The ignore second argument defaults to TRUE.</t>
+  </si>
+  <si>
+    <t>I+like+++chips+and+ice +cream.</t>
+  </si>
+  <si>
+    <t>=IFS(D47&gt;250000;"BIGSMILE";D47&gt;100000;"smallsmile";TRUE;"crying")</t>
+  </si>
+  <si>
+    <t>=IF(D19&gt;250000;"BIGSMILE";IF(D19&gt;100000;"smallsmile";"crying"))</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2450,6 +2450,23 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2786,7 +2803,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2859,6 +2876,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4155,7 +4176,17 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>😁 if greater than 250000,</a:t>
+            <a:t>"BIGSMILE" if greater than 250000,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="628650" lvl="1" indent="-171450">
+            <a:buFont typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:buChar char="o"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+            <a:t>"smallsmile" if greater than 100000, and </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4165,21 +4196,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>😐</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-            <a:t> if greater than 100000, and </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="628650" lvl="1" indent="-171450">
-            <a:buFont typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:buChar char="o"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400"/>
-            <a:t>😥 otherwise.</a:t>
+            <a:t>"crying" otherwise.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4832,13 +4849,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1633904</xdr:colOff>
+      <xdr:colOff>935404</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>125061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2608385</xdr:colOff>
+      <xdr:colOff>1909885</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>117231</xdr:rowOff>
     </xdr:to>
@@ -4857,8 +4874,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1633904" y="5056080"/>
-              <a:ext cx="9224596" cy="2475997"/>
+              <a:off x="935404" y="4906611"/>
+              <a:ext cx="9623181" cy="2392470"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5498,8 +5515,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1633904" y="5056080"/>
-              <a:ext cx="9224596" cy="2475997"/>
+              <a:off x="935404" y="4906611"/>
+              <a:ext cx="9623181" cy="2392470"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5735,7 +5752,7 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5759,7 +5776,7 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5783,7 +5800,7 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5807,7 +5824,7 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5830,13 +5847,14 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="nb-NO" sz="1400" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5909,10 +5927,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6204,7 +6218,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6218,24 +6232,24 @@
       <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="59.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" customWidth="1"/>
+    <col min="9" max="10" width="13.7265625" customWidth="1"/>
+    <col min="11" max="11" width="59.453125" customWidth="1"/>
     <col min="12" max="12" width="56" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
+    <col min="15" max="15" width="32.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -6267,7 +6281,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6299,7 +6313,7 @@
         <v>-420.03925284244724</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -6334,7 +6348,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -6366,7 +6380,7 @@
         <v>48.347055888223551</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -6398,7 +6412,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -6427,7 +6441,7 @@
         <v>33.260612671575309</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -6462,7 +6476,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -6494,7 +6508,7 @@
         <v>-163.84722706662018</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -6529,7 +6543,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -6561,7 +6575,7 @@
         <v>-17.092237949856596</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -6596,7 +6610,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -6628,7 +6642,7 @@
         <v>-134.96047000797853</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -6663,7 +6677,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -6695,7 +6709,7 @@
         <v>81.196470910821148</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -6730,7 +6744,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -6762,7 +6776,7 @@
         <v>-1.5071148992208379</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -6797,7 +6811,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -6829,7 +6843,7 @@
         <v>-31.534573163831165</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -6864,7 +6878,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -6896,7 +6910,7 @@
         <v>-188.44205412907704</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -6928,7 +6942,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -6960,7 +6974,7 @@
         <v>91.534647786798544</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -6995,7 +7009,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -7024,7 +7038,7 @@
         <v>-3.7978725191994065</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -7056,7 +7070,7 @@
         <v>-50.885333984613496</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -7085,7 +7099,7 @@
         <v>-93.087507772160791</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -7117,7 +7131,7 @@
         <v>35.224962202179242</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -7149,7 +7163,7 @@
         <v>81.531628159345857</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -7181,7 +7195,7 @@
         <v>41.998076406907039</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -7213,7 +7227,7 @@
         <v>34.077580724934641</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -7245,7 +7259,7 @@
         <v>-120.52651128238465</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -7277,7 +7291,7 @@
         <v>-83.25231481481481</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -7309,7 +7323,7 @@
         <v>98.446724871541946</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -7341,7 +7355,7 @@
         <v>82.819398494507141</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -7373,7 +7387,7 @@
         <v>-10287.520798668884</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -7405,7 +7419,7 @@
         <v>-30.493637026829862</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -7437,7 +7451,7 @@
         <v>-527.32602248430919</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -7469,7 +7483,7 @@
         <v>74.385023840485474</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -7501,7 +7515,7 @@
         <v>97.279982626635544</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -7533,7 +7547,7 @@
         <v>7.9967866793252087</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -7565,7 +7579,7 @@
         <v>-59.033515458422166</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -7597,7 +7611,7 @@
         <v>-695.07487520798668</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -7629,7 +7643,7 @@
         <v>-1264.4225604297224</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -7661,7 +7675,7 @@
         <v>96.466246841281929</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -7693,7 +7707,7 @@
         <v>27.691437029297816</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -7725,7 +7739,7 @@
         <v>-6608.7193460490471</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -7757,7 +7771,7 @@
         <v>-5.1516264267572387</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>111</v>
       </c>
@@ -7789,7 +7803,7 @@
         <v>50.726716510745248</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -7821,7 +7835,7 @@
         <v>-14.318656770195268</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -7853,7 +7867,7 @@
         <v>20.900530800675192</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -7882,7 +7896,7 @@
         <v>79.720437890165584</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -7914,7 +7928,7 @@
         <v>74.128771425707512</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -7943,7 +7957,7 @@
         <v>-22.851063829787236</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>123</v>
       </c>
@@ -7972,7 +7986,7 @@
         <v>-27276.760563380281</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -8004,7 +8018,7 @@
         <v>-751.14120511259887</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -8036,7 +8050,7 @@
         <v>-1495.8653846153848</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>129</v>
       </c>
@@ -8068,7 +8082,7 @@
         <v>-4.9876750406461534</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -8100,7 +8114,7 @@
         <v>-22.221795216683962</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>133</v>
       </c>
@@ -8129,7 +8143,7 @@
         <v>65.888913673879088</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -8161,7 +8175,7 @@
         <v>-547.85553047404062</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>138</v>
       </c>
@@ -8193,7 +8207,7 @@
         <v>78.236574746008714</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -8222,7 +8236,7 @@
         <v>73.521171017832359</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>142</v>
       </c>
@@ -8254,7 +8268,7 @@
         <v>-7.3184997441084079</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>144</v>
       </c>
@@ -8286,7 +8300,7 @@
         <v>13.038401812089164</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>146</v>
       </c>
@@ -8318,7 +8332,7 @@
         <v>13.061587899379823</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -8350,7 +8364,7 @@
         <v>-1203.85073441842</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>150</v>
       </c>
@@ -8382,7 +8396,7 @@
         <v>10.860819103769209</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>152</v>
       </c>
@@ -8414,7 +8428,7 @@
         <v>29.679150413744896</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>154</v>
       </c>
@@ -8446,7 +8460,7 @@
         <v>-0.1567756475160732</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>156</v>
       </c>
@@ -8478,7 +8492,7 @@
         <v>89.640056711322003</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>158</v>
       </c>
@@ -8510,7 +8524,7 @@
         <v>32.560155432670754</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>160</v>
       </c>
@@ -8542,7 +8556,7 @@
         <v>-66.321889671361504</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>162</v>
       </c>
@@ -8574,7 +8588,7 @@
         <v>94.576953919027289</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>164</v>
       </c>
@@ -8606,7 +8620,7 @@
         <v>-360.28379935071735</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>166</v>
       </c>
@@ -8638,7 +8652,7 @@
         <v>-12.881957468909594</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>168</v>
       </c>
@@ -8670,7 +8684,7 @@
         <v>84.933486885400015</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>170</v>
       </c>
@@ -8702,7 +8716,7 @@
         <v>-40.472276523902615</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>172</v>
       </c>
@@ -8734,7 +8748,7 @@
         <v>54.462291020360631</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>174</v>
       </c>
@@ -8766,7 +8780,7 @@
         <v>-292.68192968111202</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>176</v>
       </c>
@@ -8798,7 +8812,7 @@
         <v>92.807699204973417</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>178</v>
       </c>
@@ -8830,7 +8844,7 @@
         <v>-137.47689694789949</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>180</v>
       </c>
@@ -8862,7 +8876,7 @@
         <v>25.576865100531055</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>182</v>
       </c>
@@ -8894,7 +8908,7 @@
         <v>43.631451318222588</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>184</v>
       </c>
@@ -8926,7 +8940,7 @@
         <v>-127.03586443141124</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>186</v>
       </c>
@@ -8958,7 +8972,7 @@
         <v>93.536962522031189</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>188</v>
       </c>
@@ -8990,7 +9004,7 @@
         <v>13.417394874200927</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>190</v>
       </c>
@@ -9022,7 +9036,7 @@
         <v>-32.349389030974706</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>192</v>
       </c>
@@ -9054,7 +9068,7 @@
         <v>-41.129098394265931</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>194</v>
       </c>
@@ -9086,7 +9100,7 @@
         <v>33.702882483370281</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>196</v>
       </c>
@@ -9118,7 +9132,7 @@
         <v>70.223652998983397</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>198</v>
       </c>
@@ -9150,7 +9164,7 @@
         <v>-281.65355499480478</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>200</v>
       </c>
@@ -9182,7 +9196,7 @@
         <v>-85.653881700554521</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>202</v>
       </c>
@@ -9214,7 +9228,7 @@
         <v>-604.36860068259386</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>204</v>
       </c>
@@ -9243,7 +9257,7 @@
         <v>-1197.8025582158084</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>206</v>
       </c>
@@ -9272,7 +9286,7 @@
         <v>52.323538917695998</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>208</v>
       </c>
@@ -9301,7 +9315,7 @@
         <v>-78.374691198702109</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>210</v>
       </c>
@@ -9333,7 +9347,7 @@
         <v>57.7713614563962</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>212</v>
       </c>
@@ -9362,7 +9376,7 @@
         <v>-32.110532639166991</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>214</v>
       </c>
@@ -9394,7 +9408,7 @@
         <v>-8.7723356271323585</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>216</v>
       </c>
@@ -9426,7 +9440,7 @@
         <v>89.231755763395796</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>218</v>
       </c>
@@ -9455,7 +9469,7 @@
         <v>5.8589903862110084</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>220</v>
       </c>
@@ -9487,7 +9501,7 @@
         <v>-152.521604540178</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>222</v>
       </c>
@@ -9519,7 +9533,7 @@
         <v>38.324742758240298</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>224</v>
       </c>
@@ -9551,7 +9565,7 @@
         <v>12.807824896498257</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>226</v>
       </c>
@@ -9583,7 +9597,7 @@
         <v>87.787331110721169</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>228</v>
       </c>
@@ -9615,7 +9629,7 @@
         <v>67.837528747910682</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>230</v>
       </c>
@@ -9647,7 +9661,7 @@
         <v>-8.5447297915441425</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>232</v>
       </c>
@@ -9679,7 +9693,7 @@
         <v>81.167669819432504</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>234</v>
       </c>
@@ -9711,7 +9725,7 @@
         <v>-87.094099048902493</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>236</v>
       </c>
@@ -9743,7 +9757,7 @@
         <v>83.565260301011591</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>238</v>
       </c>
@@ -9775,7 +9789,7 @@
         <v>79.046092939956637</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>240</v>
       </c>
@@ -9807,7 +9821,7 @@
         <v>-64.89775789492225</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>242</v>
       </c>
@@ -9839,7 +9853,7 @@
         <v>-143.75099052267899</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>244</v>
       </c>
@@ -9871,7 +9885,7 @@
         <v>-166.74530951578475</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>246</v>
       </c>
@@ -9903,7 +9917,7 @@
         <v>9.3898761545318337</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>248</v>
       </c>
@@ -9935,7 +9949,7 @@
         <v>52.382451456921956</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>250</v>
       </c>
@@ -9967,7 +9981,7 @@
         <v>11.622002820874483</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>252</v>
       </c>
@@ -9999,7 +10013,7 @@
         <v>22.973309512208321</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>254</v>
       </c>
@@ -10031,7 +10045,7 @@
         <v>-72.581192438196808</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>256</v>
       </c>
@@ -10063,7 +10077,7 @@
         <v>-157.84736546034125</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>258</v>
       </c>
@@ -10095,7 +10109,7 @@
         <v>18.348256187975238</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>260</v>
       </c>
@@ -10127,7 +10141,7 @@
         <v>47.99184146249339</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>262</v>
       </c>
@@ -10159,7 +10173,7 @@
         <v>20.693555248876766</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>264</v>
       </c>
@@ -10191,7 +10205,7 @@
         <v>-2106.4174454828658</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>266</v>
       </c>
@@ -10223,7 +10237,7 @@
         <v>-56.953428201811114</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>268</v>
       </c>
@@ -10255,7 +10269,7 @@
         <v>-378.29233965551902</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>270</v>
       </c>
@@ -10287,7 +10301,7 @@
         <v>46.222940806610971</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>272</v>
       </c>
@@ -10319,7 +10333,7 @@
         <v>27.371723883351788</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>274</v>
       </c>
@@ -10351,7 +10365,7 @@
         <v>92.838237932890706</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>276</v>
       </c>
@@ -10383,7 +10397,7 @@
         <v>-29.177848255672114</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>278</v>
       </c>
@@ -10415,7 +10429,7 @@
         <v>-55.89709762532982</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>280</v>
       </c>
@@ -10447,7 +10461,7 @@
         <v>-1817.4572233051765</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>282</v>
       </c>
@@ -10479,7 +10493,7 @@
         <v>-0.20065727106112868</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>284</v>
       </c>
@@ -10511,7 +10525,7 @@
         <v>-1831.2252964426877</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>286</v>
       </c>
@@ -10540,7 +10554,7 @@
         <v>67.61334028139656</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>288</v>
       </c>
@@ -10569,7 +10583,7 @@
         <v>-241.11649102819712</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>290</v>
       </c>
@@ -10598,7 +10612,7 @@
         <v>-1633.7199086276578</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>292</v>
       </c>
@@ -10630,7 +10644,7 @@
         <v>57.108323736603488</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>294</v>
       </c>
@@ -10659,7 +10673,7 @@
         <v>48.703569705740463</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>296</v>
       </c>
@@ -10691,7 +10705,7 @@
         <v>-3148.8388969521047</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>298</v>
       </c>
@@ -10723,7 +10737,7 @@
         <v>-1292.4759793052474</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>300</v>
       </c>
@@ -10755,7 +10769,7 @@
         <v>57.390969666353946</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>302</v>
       </c>
@@ -10787,7 +10801,7 @@
         <v>77.506005173688095</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>304</v>
       </c>
@@ -10819,7 +10833,7 @@
         <v>28.226957651204362</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>306</v>
       </c>
@@ -10851,7 +10865,7 @@
         <v>-20.459639777432042</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>308</v>
       </c>
@@ -10883,7 +10897,7 @@
         <v>53.057453632687206</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>310</v>
       </c>
@@ -10915,7 +10929,7 @@
         <v>-34.785622026903575</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>312</v>
       </c>
@@ -10947,7 +10961,7 @@
         <v>-152.52762175174374</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>314</v>
       </c>
@@ -10979,7 +10993,7 @@
         <v>-12.604099350103033</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>316</v>
       </c>
@@ -11011,7 +11025,7 @@
         <v>-2515.4689403166872</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>318</v>
       </c>
@@ -11043,7 +11057,7 @@
         <v>56.876523493317649</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>320</v>
       </c>
@@ -11075,7 +11089,7 @@
         <v>-31.604516557548145</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>322</v>
       </c>
@@ -11107,7 +11121,7 @@
         <v>71.99709609292502</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>324</v>
       </c>
@@ -11139,7 +11153,7 @@
         <v>6.7795012022063998</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>326</v>
       </c>
@@ -11171,7 +11185,7 @@
         <v>-136.93625598387504</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>328</v>
       </c>
@@ -11203,7 +11217,7 @@
         <v>-19.383253602222929</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>330</v>
       </c>
@@ -11235,7 +11249,7 @@
         <v>-100.40170831747642</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>332</v>
       </c>
@@ -11267,7 +11281,7 @@
         <v>-163.86166572539119</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>334</v>
       </c>
@@ -11299,7 +11313,7 @@
         <v>-39.556259904912835</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>336</v>
       </c>
@@ -11331,7 +11345,7 @@
         <v>57.680509285219507</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -11363,7 +11377,7 @@
         <v>-94.774008050603783</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>339</v>
       </c>
@@ -11395,7 +11409,7 @@
         <v>99.300406073446325</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>341</v>
       </c>
@@ -11427,7 +11441,7 @@
         <v>52.278105665326606</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>343</v>
       </c>
@@ -11459,7 +11473,7 @@
         <v>88.391617637337205</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>345</v>
       </c>
@@ -11491,7 +11505,7 @@
         <v>52.442543868888379</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>347</v>
       </c>
@@ -11523,7 +11537,7 @@
         <v>89.959938875810522</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>349</v>
       </c>
@@ -11555,7 +11569,7 @@
         <v>-113.66424986056887</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>351</v>
       </c>
@@ -11587,7 +11601,7 @@
         <v>-53.399203657277688</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>353</v>
       </c>
@@ -11619,7 +11633,7 @@
         <v>20.559537365753453</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>355</v>
       </c>
@@ -11648,7 +11662,7 @@
         <v>5.4314463394453849</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>357</v>
       </c>
@@ -11677,7 +11691,7 @@
         <v>57.316703578505646</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>359</v>
       </c>
@@ -11706,7 +11720,7 @@
         <v>83.635294981999849</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>361</v>
       </c>
@@ -11738,7 +11752,7 @@
         <v>-8.4988962472406193</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>363</v>
       </c>
@@ -11767,7 +11781,7 @@
         <v>-512.73047939714615</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>365</v>
       </c>
@@ -11799,7 +11813,7 @@
         <v>-679.56907236152165</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>367</v>
       </c>
@@ -11828,7 +11842,7 @@
         <v>68.990751605536417</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>369</v>
       </c>
@@ -11860,7 +11874,7 @@
         <v>-262.3487018386769</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>371</v>
       </c>
@@ -11892,7 +11906,7 @@
         <v>10.617804020873518</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>373</v>
       </c>
@@ -11921,7 +11935,7 @@
         <v>-607.60990850256633</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>375</v>
       </c>
@@ -11953,7 +11967,7 @@
         <v>-343.22698867640838</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>377</v>
       </c>
@@ -11985,7 +11999,7 @@
         <v>42.445263386082814</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>379</v>
       </c>
@@ -12017,7 +12031,7 @@
         <v>33.572536850271526</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>381</v>
       </c>
@@ -12049,7 +12063,7 @@
         <v>-26.356170952466577</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>383</v>
       </c>
@@ -12081,7 +12095,7 @@
         <v>-147.13278664940293</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>385</v>
       </c>
@@ -12113,7 +12127,7 @@
         <v>-317.41481202062113</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>387</v>
       </c>
@@ -12145,7 +12159,7 @@
         <v>89.520871997281546</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>389</v>
       </c>
@@ -12177,7 +12191,7 @@
         <v>-258.99464149017609</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>391</v>
       </c>
@@ -12209,7 +12223,7 @@
         <v>38.947488041984769</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>393</v>
       </c>
@@ -12241,7 +12255,7 @@
         <v>-78247.222222222219</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>395</v>
       </c>
@@ -12273,7 +12287,7 @@
         <v>42.556901891217414</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>397</v>
       </c>
@@ -12305,7 +12319,7 @@
         <v>9.7106070633535921</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>399</v>
       </c>
@@ -12337,7 +12351,7 @@
         <v>86.840567002776567</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>401</v>
       </c>
@@ -12369,7 +12383,7 @@
         <v>-553.70304114490159</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>403</v>
       </c>
@@ -12401,7 +12415,7 @@
         <v>53.126778047897382</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>405</v>
       </c>
@@ -12433,7 +12447,7 @@
         <v>5.6288195561268232E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>407</v>
       </c>
@@ -12462,7 +12476,7 @@
         <v>15.885605212927013</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>409</v>
       </c>
@@ -12491,7 +12505,7 @@
         <v>82.462207156720694</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>411</v>
       </c>
@@ -12523,7 +12537,7 @@
         <v>-104.72685005811702</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>413</v>
       </c>
@@ -12555,7 +12569,7 @@
         <v>41.181885872876194</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>415</v>
       </c>
@@ -12584,7 +12598,7 @@
         <v>7.9982264718356033</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>417</v>
       </c>
@@ -12627,61 +12641,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CB08ED-6523-4798-83CC-8DDA2088ECBC}">
   <dimension ref="A1:K247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="52" t="s">
-        <v>622</v>
-      </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="54" t="s">
+        <v>628</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="55" t="s">
+        <v>626</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="56" t="s">
+        <v>612</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="C22" s="23">
         <v>0.1</v>
@@ -12693,9 +12707,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B23">
         <v>1000</v>
@@ -12704,9 +12718,9 @@
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="B24">
         <v>1500</v>
@@ -12719,9 +12733,9 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="B25">
         <v>2500</v>
@@ -12736,7 +12750,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -12747,7 +12761,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -12758,7 +12772,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -12768,46 +12782,46 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="51" t="s">
-        <v>637</v>
-      </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="55" t="s">
+        <v>627</v>
+      </c>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="25" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="25" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="D37" s="25"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -12815,7 +12829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2</v>
       </c>
@@ -12823,7 +12837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3</v>
       </c>
@@ -12831,7 +12845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4</v>
       </c>
@@ -12839,7 +12853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5</v>
       </c>
@@ -12847,8 +12861,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="19" t="s">
         <v>4</v>
       </c>
@@ -12868,7 +12882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -12888,7 +12902,7 @@
         <v>147.76</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -12908,7 +12922,7 @@
         <v>584.54999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -12928,7 +12942,7 @@
         <v>641.28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -12948,7 +12962,7 @@
         <v>677.01</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -12968,7 +12982,7 @@
         <v>440.04</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -12988,7 +13002,7 @@
         <v>335.77</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -13008,7 +13022,7 @@
         <v>286.7</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -13028,7 +13042,7 @@
         <v>125.77</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -13048,7 +13062,7 @@
         <v>216.18</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -13068,7 +13082,7 @@
         <v>162.02000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>35</v>
       </c>
@@ -13088,7 +13102,7 @@
         <v>275.74</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>37</v>
       </c>
@@ -13108,7 +13122,7 @@
         <v>740.72</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -13128,7 +13142,7 @@
         <v>619.99</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -13148,7 +13162,7 @@
         <v>999.67</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>44</v>
       </c>
@@ -13168,7 +13182,7 @@
         <v>820.11</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -13188,7 +13202,7 @@
         <v>43.26</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -13208,7 +13222,7 @@
         <v>530.17999999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>50</v>
       </c>
@@ -13228,7 +13242,7 @@
         <v>270.92</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -13248,7 +13262,7 @@
         <v>288.2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>54</v>
       </c>
@@ -13268,7 +13282,7 @@
         <v>523.12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>56</v>
       </c>
@@ -13288,7 +13302,7 @@
         <v>784.61</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>58</v>
       </c>
@@ -13308,7 +13322,7 @@
         <v>756.29</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -13328,7 +13342,7 @@
         <v>595.07000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>63</v>
       </c>
@@ -13348,7 +13362,7 @@
         <v>409.45</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -13368,7 +13382,7 @@
         <v>369.91</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -13388,7 +13402,7 @@
         <v>383.62</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>69</v>
       </c>
@@ -13408,7 +13422,7 @@
         <v>792.49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -13428,7 +13442,7 @@
         <v>894.16</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -13448,7 +13462,7 @@
         <v>424.59</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -13468,7 +13482,7 @@
         <v>215.38</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -13488,7 +13502,7 @@
         <v>345.6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -13508,7 +13522,7 @@
         <v>679.21</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -13528,7 +13542,7 @@
         <v>867.49</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -13548,7 +13562,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -13568,7 +13582,7 @@
         <v>370.11</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -13588,7 +13602,7 @@
         <v>144.99</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -13608,7 +13622,7 @@
         <v>369.12</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>92</v>
       </c>
@@ -13628,7 +13642,7 @@
         <v>368.38</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -13648,7 +13662,7 @@
         <v>410.79</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -13668,7 +13682,7 @@
         <v>600.32000000000005</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -13688,7 +13702,7 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>100</v>
       </c>
@@ -13708,7 +13722,7 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -13728,7 +13742,7 @@
         <v>249.31</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -13748,7 +13762,7 @@
         <v>229.71</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -13768,7 +13782,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -13788,7 +13802,7 @@
         <v>653.58000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>111</v>
       </c>
@@ -13808,7 +13822,7 @@
         <v>787.79</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>113</v>
       </c>
@@ -13828,7 +13842,7 @@
         <v>555.08000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>115</v>
       </c>
@@ -13848,7 +13862,7 @@
         <v>983.42</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -13868,7 +13882,7 @@
         <v>442.12</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>119</v>
       </c>
@@ -13888,7 +13902,7 @@
         <v>598.58000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>121</v>
       </c>
@@ -13908,7 +13922,7 @@
         <v>164.5</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>123</v>
       </c>
@@ -13928,7 +13942,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>125</v>
       </c>
@@ -13948,7 +13962,7 @@
         <v>65.72</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>127</v>
       </c>
@@ -13968,7 +13982,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>129</v>
       </c>
@@ -13988,7 +14002,7 @@
         <v>762.68</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>131</v>
       </c>
@@ -14008,7 +14022,7 @@
         <v>780.63</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>133</v>
       </c>
@@ -14028,7 +14042,7 @@
         <v>448.3</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>136</v>
       </c>
@@ -14048,7 +14062,7 @@
         <v>128.47</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>138</v>
       </c>
@@ -14068,7 +14082,7 @@
         <v>826.8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>140</v>
       </c>
@@ -14088,7 +14102,7 @@
         <v>763.78</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>142</v>
       </c>
@@ -14108,7 +14122,7 @@
         <v>410.33</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>144</v>
       </c>
@@ -14128,7 +14142,7 @@
         <v>856.47</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>146</v>
       </c>
@@ -14148,7 +14162,7 @@
         <v>977.14</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>148</v>
       </c>
@@ -14168,7 +14182,7 @@
         <v>25.19</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>150</v>
       </c>
@@ -14188,7 +14202,7 @@
         <v>539.37</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>152</v>
       </c>
@@ -14208,7 +14222,7 @@
         <v>887.02</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>154</v>
       </c>
@@ -14228,7 +14242,7 @@
         <v>612.34</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>156</v>
       </c>
@@ -14248,7 +14262,7 @@
         <v>691.22</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>158</v>
       </c>
@@ -14268,7 +14282,7 @@
         <v>334.55</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>160</v>
       </c>
@@ -14288,7 +14302,7 @@
         <v>272.64</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>162</v>
       </c>
@@ -14308,7 +14322,7 @@
         <v>536.23</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>164</v>
       </c>
@@ -14328,7 +14342,7 @@
         <v>190.98</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>166</v>
       </c>
@@ -14348,7 +14362,7 @@
         <v>693.14</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>168</v>
       </c>
@@ -14368,7 +14382,7 @@
         <v>850.96</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>170</v>
       </c>
@@ -14388,7 +14402,7 @@
         <v>450.16</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>172</v>
       </c>
@@ -14408,7 +14422,7 @@
         <v>944.47</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>174</v>
       </c>
@@ -14428,7 +14442,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>176</v>
       </c>
@@ -14448,7 +14462,7 @@
         <v>836.45</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>178</v>
       </c>
@@ -14468,7 +14482,7 @@
         <v>400.38</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>180</v>
       </c>
@@ -14488,7 +14502,7 @@
         <v>431.21</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>182</v>
       </c>
@@ -14508,7 +14522,7 @@
         <v>903.11</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>184</v>
       </c>
@@ -14528,7 +14542,7 @@
         <v>192.67</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>186</v>
       </c>
@@ -14548,7 +14562,7 @@
         <v>601.41999999999996</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>188</v>
       </c>
@@ -14568,7 +14582,7 @@
         <v>852.55</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>190</v>
       </c>
@@ -14588,7 +14602,7 @@
         <v>563.04</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>192</v>
       </c>
@@ -14608,7 +14622,7 @@
         <v>609.69000000000005</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>194</v>
       </c>
@@ -14628,7 +14642,7 @@
         <v>216.48</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>196</v>
       </c>
@@ -14648,7 +14662,7 @@
         <v>295.10000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>198</v>
       </c>
@@ -14668,7 +14682,7 @@
         <v>67.37</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>200</v>
       </c>
@@ -14688,7 +14702,7 @@
         <v>432.8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>202</v>
       </c>
@@ -14708,7 +14722,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>204</v>
       </c>
@@ -14728,7 +14742,7 @@
         <v>30.49</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>206</v>
       </c>
@@ -14748,7 +14762,7 @@
         <v>711.63</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>208</v>
       </c>
@@ -14768,7 +14782,7 @@
         <v>542.41999999999996</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>210</v>
       </c>
@@ -14788,7 +14802,7 @@
         <v>408.68</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>212</v>
       </c>
@@ -14808,7 +14822,7 @@
         <v>749.1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>214</v>
       </c>
@@ -14828,7 +14842,7 @@
         <v>345.86</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>216</v>
       </c>
@@ -14848,7 +14862,7 @@
         <v>639.38</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>218</v>
       </c>
@@ -14868,7 +14882,7 @@
         <v>903.91</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>220</v>
       </c>
@@ -14888,7 +14902,7 @@
         <v>77.53</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>222</v>
       </c>
@@ -14908,7 +14922,7 @@
         <v>525.77</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>224</v>
       </c>
@@ -14928,7 +14942,7 @@
         <v>606.27</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>226</v>
       </c>
@@ -14948,7 +14962,7 @@
         <v>911.84</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>228</v>
       </c>
@@ -14968,7 +14982,7 @@
         <v>795.71</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>230</v>
       </c>
@@ -14988,7 +15002,7 @@
         <v>765.15</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>232</v>
       </c>
@@ -15008,7 +15022,7 @@
         <v>581.5</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>234</v>
       </c>
@@ -15028,7 +15042,7 @@
         <v>385.87</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>236</v>
       </c>
@@ -15048,7 +15062,7 @@
         <v>810.6</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>238</v>
       </c>
@@ -15068,7 +15082,7 @@
         <v>106.09</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>240</v>
       </c>
@@ -15088,7 +15102,7 @@
         <v>567.77</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>242</v>
       </c>
@@ -15108,7 +15122,7 @@
         <v>315.49</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>244</v>
       </c>
@@ -15128,7 +15142,7 @@
         <v>89.01</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>246</v>
       </c>
@@ -15148,7 +15162,7 @@
         <v>527.27</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>248</v>
       </c>
@@ -15168,7 +15182,7 @@
         <v>794.14</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>250</v>
       </c>
@@ -15188,7 +15202,7 @@
         <v>141.80000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>252</v>
       </c>
@@ -15208,7 +15222,7 @@
         <v>923.55</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>254</v>
       </c>
@@ -15228,7 +15242,7 @@
         <v>412.6</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>256</v>
       </c>
@@ -15248,7 +15262,7 @@
         <v>319.98</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>258</v>
       </c>
@@ -15268,7 +15282,7 @@
         <v>948.21</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>260</v>
       </c>
@@ -15288,7 +15302,7 @@
         <v>794.26</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>262</v>
       </c>
@@ -15308,7 +15322,7 @@
         <v>963.73</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>264</v>
       </c>
@@ -15328,7 +15342,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>266</v>
       </c>
@@ -15348,7 +15362,7 @@
         <v>432.88</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>268</v>
       </c>
@@ -15368,7 +15382,7 @@
         <v>149.21</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>270</v>
       </c>
@@ -15388,7 +15402,7 @@
         <v>333.99</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>272</v>
       </c>
@@ -15408,7 +15422,7 @@
         <v>325.08</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>274</v>
       </c>
@@ -15428,7 +15442,7 @@
         <v>891.68</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>276</v>
       </c>
@@ -15448,7 +15462,7 @@
         <v>327.92</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>278</v>
       </c>
@@ -15468,7 +15482,7 @@
         <v>151.6</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>280</v>
       </c>
@@ -15488,7 +15502,7 @@
         <v>46.17</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>282</v>
       </c>
@@ -15508,7 +15522,7 @@
         <v>632.91999999999996</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>284</v>
       </c>
@@ -15528,7 +15542,7 @@
         <v>43.01</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>286</v>
       </c>
@@ -15548,7 +15562,7 @@
         <v>383.8</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>288</v>
       </c>
@@ -15568,7 +15582,7 @@
         <v>175.55</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>290</v>
       </c>
@@ -15588,7 +15602,7 @@
         <v>56.91</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>292</v>
       </c>
@@ -15608,7 +15622,7 @@
         <v>963.87</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>294</v>
       </c>
@@ -15628,7 +15642,7 @@
         <v>995.04</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>296</v>
       </c>
@@ -15648,7 +15662,7 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>298</v>
       </c>
@@ -15668,7 +15682,7 @@
         <v>67.650000000000006</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>300</v>
       </c>
@@ -15688,7 +15702,7 @@
         <v>415.71</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>302</v>
       </c>
@@ -15708,7 +15722,7 @@
         <v>432.96</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>304</v>
       </c>
@@ -15728,7 +15742,7 @@
         <v>777.59</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>306</v>
       </c>
@@ -15748,7 +15762,7 @@
         <v>758.42</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>308</v>
       </c>
@@ -15768,7 +15782,7 @@
         <v>573.67999999999995</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>310</v>
       </c>
@@ -15788,7 +15802,7 @@
         <v>634.86</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>312</v>
       </c>
@@ -15808,7 +15822,7 @@
         <v>162.01</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>314</v>
       </c>
@@ -15828,7 +15842,7 @@
         <v>820.13</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>316</v>
       </c>
@@ -15848,7 +15862,7 @@
         <v>24.63</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>318</v>
       </c>
@@ -15868,7 +15882,7 @@
         <v>594.85</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>320</v>
       </c>
@@ -15888,7 +15902,7 @@
         <v>526.95000000000005</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>322</v>
       </c>
@@ -15908,7 +15922,7 @@
         <v>606.08000000000004</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>324</v>
       </c>
@@ -15928,7 +15942,7 @@
         <v>636.33000000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>326</v>
       </c>
@@ -15948,7 +15962,7 @@
         <v>357.21</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>328</v>
       </c>
@@ -15968,7 +15982,7 @@
         <v>698.18</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>330</v>
       </c>
@@ -15988,7 +16002,7 @@
         <v>472.98</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>332</v>
       </c>
@@ -16008,7 +16022,7 @@
         <v>301.01</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>334</v>
       </c>
@@ -16028,7 +16042,7 @@
         <v>504.8</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>336</v>
       </c>
@@ -16048,7 +16062,7 @@
         <v>303.17</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>10</v>
       </c>
@@ -16068,7 +16082,7 @@
         <v>434.75</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>339</v>
       </c>
@@ -16088,7 +16102,7 @@
         <v>453.12</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>341</v>
       </c>
@@ -16108,7 +16122,7 @@
         <v>701.46</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>343</v>
       </c>
@@ -16128,7 +16142,7 @@
         <v>151.27000000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>345</v>
       </c>
@@ -16148,7 +16162,7 @@
         <v>949.42</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>347</v>
       </c>
@@ -16168,7 +16182,7 @@
         <v>726.39</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>349</v>
       </c>
@@ -16188,7 +16202,7 @@
         <v>304.81</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>351</v>
       </c>
@@ -16208,7 +16222,7 @@
         <v>339.05</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>353</v>
       </c>
@@ -16228,7 +16242,7 @@
         <v>895.74</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>355</v>
       </c>
@@ -16248,7 +16262,7 @@
         <v>749.34</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>357</v>
       </c>
@@ -16268,7 +16282,7 @@
         <v>428.95</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>359</v>
       </c>
@@ -16288,7 +16302,7 @@
         <v>680.55</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>361</v>
       </c>
@@ -16308,7 +16322,7 @@
         <v>507.36</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>363</v>
       </c>
@@ -16328,7 +16342,7 @@
         <v>124.74</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>365</v>
       </c>
@@ -16348,7 +16362,7 @@
         <v>104.89</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>367</v>
       </c>
@@ -16368,7 +16382,7 @@
         <v>792.57</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>369</v>
       </c>
@@ -16388,7 +16402,7 @@
         <v>216.46</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>371</v>
       </c>
@@ -16408,7 +16422,7 @@
         <v>845.09</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>373</v>
       </c>
@@ -16428,7 +16442,7 @@
         <v>89.62</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>375</v>
       </c>
@@ -16448,7 +16462,7 @@
         <v>212.83</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>377</v>
       </c>
@@ -16468,7 +16482,7 @@
         <v>322.91000000000003</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>379</v>
       </c>
@@ -16488,7 +16502,7 @@
         <v>979.64</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>381</v>
       </c>
@@ -16508,7 +16522,7 @@
         <v>500.49</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>383</v>
       </c>
@@ -16528,7 +16542,7 @@
         <v>347.55</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>385</v>
       </c>
@@ -16548,7 +16562,7 @@
         <v>238.59</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>387</v>
       </c>
@@ -16568,7 +16582,7 @@
         <v>765.14</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>389</v>
       </c>
@@ -16588,7 +16602,7 @@
         <v>117.57</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>391</v>
       </c>
@@ -16608,7 +16622,7 @@
         <v>967.97</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>393</v>
       </c>
@@ -16628,7 +16642,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>395</v>
       </c>
@@ -16648,7 +16662,7 @@
         <v>997.77</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>397</v>
       </c>
@@ -16668,7 +16682,7 @@
         <v>997.26</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>399</v>
       </c>
@@ -16688,7 +16702,7 @@
         <v>136.86000000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>401</v>
       </c>
@@ -16708,7 +16722,7 @@
         <v>83.85</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>403</v>
       </c>
@@ -16728,7 +16742,7 @@
         <v>773.32</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>405</v>
       </c>
@@ -16748,7 +16762,7 @@
         <v>497.44</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>407</v>
       </c>
@@ -16768,7 +16782,7 @@
         <v>911.58</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>409</v>
       </c>
@@ -16788,7 +16802,7 @@
         <v>731.62</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>411</v>
       </c>
@@ -16808,7 +16822,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>413</v>
       </c>
@@ -16828,7 +16842,7 @@
         <v>738.65</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>415</v>
       </c>
@@ -16848,7 +16862,7 @@
         <v>518.74</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>417</v>
       </c>
@@ -16885,50 +16899,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC0C6B7-48AE-4BCD-ADF0-20CF516D0AD5}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C28" sqref="C25:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
     <col min="6" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
-        <v>639</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="51" t="s">
-        <v>634</v>
-      </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="54" t="s">
+        <v>629</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="55" t="s">
+        <v>624</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
         <v>434</v>
       </c>
@@ -16939,7 +16953,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>439</v>
       </c>
@@ -16948,7 +16962,7 @@
       </c>
       <c r="C25" s="28"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>436</v>
       </c>
@@ -16957,7 +16971,7 @@
       </c>
       <c r="C26" s="28"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>437</v>
       </c>
@@ -16966,7 +16980,7 @@
       </c>
       <c r="C27" s="28"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>438</v>
       </c>
@@ -16975,28 +16989,28 @@
       </c>
       <c r="C28" s="28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C29" s="28"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C30" s="28"/>
     </row>
-    <row r="32" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="51" t="s">
-        <v>635</v>
-      </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="55" t="s">
+        <v>625</v>
+      </c>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>434</v>
       </c>
@@ -17013,7 +17027,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>439</v>
       </c>
@@ -17026,13 +17040,13 @@
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
       <c r="F45" s="29" t="s">
-        <v>456</v>
+        <v>671</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
         <v>436</v>
       </c>
@@ -17045,13 +17059,13 @@
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
       <c r="F46" s="29" t="s">
-        <v>457</v>
+        <v>672</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
         <v>437</v>
       </c>
@@ -17064,7 +17078,7 @@
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
         <v>438</v>
       </c>
@@ -17077,7 +17091,7 @@
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
         <v>443</v>
       </c>
@@ -17090,7 +17104,7 @@
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
         <v>445</v>
       </c>
@@ -17103,7 +17117,7 @@
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
         <v>444</v>
       </c>
@@ -17116,7 +17130,7 @@
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
         <v>446</v>
       </c>
@@ -17129,7 +17143,7 @@
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
     </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="10" t="s">
         <v>447</v>
       </c>
@@ -17137,7 +17151,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="24"/>
       <c r="B55" s="24"/>
     </row>
@@ -17156,21 +17170,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0FA58D-AD69-48C7-878A-BFCF834687E2}">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="91.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="8" max="8" width="91.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
@@ -17189,13 +17203,13 @@
       <c r="F1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="50" t="s">
-        <v>640</v>
-      </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>10</v>
       </c>
@@ -17215,7 +17229,7 @@
         <v>147.76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>13</v>
       </c>
@@ -17235,7 +17249,7 @@
         <v>584.54999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
         <v>16</v>
       </c>
@@ -17255,7 +17269,7 @@
         <v>641.28</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
         <v>19</v>
       </c>
@@ -17275,7 +17289,7 @@
         <v>677.01</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="42" t="s">
         <v>21</v>
       </c>
@@ -17295,7 +17309,7 @@
         <v>440.04</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="39" t="s">
         <v>23</v>
       </c>
@@ -17315,7 +17329,7 @@
         <v>335.77</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="42" t="s">
         <v>26</v>
       </c>
@@ -17335,7 +17349,7 @@
         <v>286.7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
         <v>28</v>
       </c>
@@ -17355,7 +17369,7 @@
         <v>125.77</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="42" t="s">
         <v>30</v>
       </c>
@@ -17375,7 +17389,7 @@
         <v>216.18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="39" t="s">
         <v>32</v>
       </c>
@@ -17395,7 +17409,7 @@
         <v>162.02000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="42" t="s">
         <v>35</v>
       </c>
@@ -17415,7 +17429,7 @@
         <v>275.74</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="39" t="s">
         <v>37</v>
       </c>
@@ -17435,7 +17449,7 @@
         <v>740.72</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="42" t="s">
         <v>39</v>
       </c>
@@ -17455,7 +17469,7 @@
         <v>619.99</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="39" t="s">
         <v>42</v>
       </c>
@@ -17475,7 +17489,7 @@
         <v>999.67</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="42" t="s">
         <v>44</v>
       </c>
@@ -17495,7 +17509,7 @@
         <v>820.11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="39" t="s">
         <v>46</v>
       </c>
@@ -17515,7 +17529,7 @@
         <v>43.26</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="42" t="s">
         <v>48</v>
       </c>
@@ -17535,7 +17549,7 @@
         <v>530.17999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
         <v>50</v>
       </c>
@@ -17555,7 +17569,7 @@
         <v>270.92</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="42" t="s">
         <v>52</v>
       </c>
@@ -17575,7 +17589,7 @@
         <v>288.2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="39" t="s">
         <v>54</v>
       </c>
@@ -17595,7 +17609,7 @@
         <v>523.12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="42" t="s">
         <v>56</v>
       </c>
@@ -17615,7 +17629,7 @@
         <v>784.61</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="39" t="s">
         <v>58</v>
       </c>
@@ -17635,7 +17649,7 @@
         <v>756.29</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="42" t="s">
         <v>60</v>
       </c>
@@ -17655,7 +17669,7 @@
         <v>595.07000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="39" t="s">
         <v>63</v>
       </c>
@@ -17675,7 +17689,7 @@
         <v>409.45</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="42" t="s">
         <v>65</v>
       </c>
@@ -17695,10 +17709,10 @@
         <v>369.91</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A27" s="39" t="s">
         <v>67</v>
       </c>
@@ -17718,7 +17732,7 @@
         <v>383.62</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="42" t="s">
         <v>69</v>
       </c>
@@ -17741,7 +17755,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="39" t="s">
         <v>71</v>
       </c>
@@ -17762,7 +17776,7 @@
       </c>
       <c r="H29" s="24"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="42" t="s">
         <v>73</v>
       </c>
@@ -17785,7 +17799,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="39" t="s">
         <v>76</v>
       </c>
@@ -17806,7 +17820,7 @@
       </c>
       <c r="H31" s="24"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="42" t="s">
         <v>78</v>
       </c>
@@ -17829,7 +17843,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="39" t="s">
         <v>80</v>
       </c>
@@ -17850,7 +17864,7 @@
       </c>
       <c r="H33" s="24"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="42" t="s">
         <v>82</v>
       </c>
@@ -17870,10 +17884,10 @@
         <v>867.49</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="39" t="s">
         <v>84</v>
       </c>
@@ -17894,7 +17908,7 @@
       </c>
       <c r="H35" s="24"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="42" t="s">
         <v>86</v>
       </c>
@@ -17914,10 +17928,10 @@
         <v>370.11</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="39" t="s">
         <v>88</v>
       </c>
@@ -17938,7 +17952,7 @@
       </c>
       <c r="H37" s="24"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="42" t="s">
         <v>90</v>
       </c>
@@ -17958,7 +17972,7 @@
         <v>369.12</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="39" t="s">
         <v>92</v>
       </c>
@@ -17978,7 +17992,7 @@
         <v>368.38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="42" t="s">
         <v>94</v>
       </c>
@@ -17998,10 +18012,10 @@
         <v>410.79</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A41" s="39" t="s">
         <v>96</v>
       </c>
@@ -18021,7 +18035,7 @@
         <v>600.32000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="42" t="s">
         <v>98</v>
       </c>
@@ -18041,10 +18055,10 @@
         <v>30.05</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="39" t="s">
         <v>100</v>
       </c>
@@ -18065,7 +18079,7 @@
       </c>
       <c r="H43" s="24"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="42" t="s">
         <v>102</v>
       </c>
@@ -18085,10 +18099,10 @@
         <v>249.31</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="39" t="s">
         <v>104</v>
       </c>
@@ -18109,7 +18123,7 @@
       </c>
       <c r="H45" s="24"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="42" t="s">
         <v>106</v>
       </c>
@@ -18129,10 +18143,10 @@
         <v>3.67</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="39" t="s">
         <v>108</v>
       </c>
@@ -18153,7 +18167,7 @@
       </c>
       <c r="H47" s="24"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="s">
         <v>111</v>
       </c>
@@ -18173,10 +18187,10 @@
         <v>787.79</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="39" t="s">
         <v>113</v>
       </c>
@@ -18197,7 +18211,7 @@
       </c>
       <c r="H49" s="24"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="42" t="s">
         <v>115</v>
       </c>
@@ -18217,7 +18231,7 @@
         <v>983.42</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="39" t="s">
         <v>117</v>
       </c>
@@ -18237,7 +18251,7 @@
         <v>442.12</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="42" t="s">
         <v>119</v>
       </c>
@@ -18257,7 +18271,7 @@
         <v>598.58000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="39" t="s">
         <v>121</v>
       </c>
@@ -18277,7 +18291,7 @@
         <v>164.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="42" t="s">
         <v>123</v>
       </c>
@@ -18297,7 +18311,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="39" t="s">
         <v>125</v>
       </c>
@@ -18317,7 +18331,7 @@
         <v>65.72</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="42" t="s">
         <v>127</v>
       </c>
@@ -18337,7 +18351,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="39" t="s">
         <v>129</v>
       </c>
@@ -18357,7 +18371,7 @@
         <v>762.68</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="42" t="s">
         <v>131</v>
       </c>
@@ -18377,7 +18391,7 @@
         <v>780.63</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="39" t="s">
         <v>133</v>
       </c>
@@ -18397,7 +18411,7 @@
         <v>448.3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="42" t="s">
         <v>136</v>
       </c>
@@ -18417,7 +18431,7 @@
         <v>128.47</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="39" t="s">
         <v>138</v>
       </c>
@@ -18437,7 +18451,7 @@
         <v>826.8</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="42" t="s">
         <v>140</v>
       </c>
@@ -18457,7 +18471,7 @@
         <v>763.78</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="39" t="s">
         <v>142</v>
       </c>
@@ -18477,7 +18491,7 @@
         <v>410.33</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="42" t="s">
         <v>144</v>
       </c>
@@ -18497,7 +18511,7 @@
         <v>856.47</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="39" t="s">
         <v>146</v>
       </c>
@@ -18517,7 +18531,7 @@
         <v>977.14</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="42" t="s">
         <v>148</v>
       </c>
@@ -18537,7 +18551,7 @@
         <v>25.19</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="39" t="s">
         <v>150</v>
       </c>
@@ -18557,7 +18571,7 @@
         <v>539.37</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="42" t="s">
         <v>152</v>
       </c>
@@ -18577,7 +18591,7 @@
         <v>887.02</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="39" t="s">
         <v>154</v>
       </c>
@@ -18597,7 +18611,7 @@
         <v>612.34</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="42" t="s">
         <v>156</v>
       </c>
@@ -18617,7 +18631,7 @@
         <v>691.22</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="39" t="s">
         <v>158</v>
       </c>
@@ -18637,7 +18651,7 @@
         <v>334.55</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="42" t="s">
         <v>160</v>
       </c>
@@ -18657,7 +18671,7 @@
         <v>272.64</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="39" t="s">
         <v>162</v>
       </c>
@@ -18677,7 +18691,7 @@
         <v>536.23</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="42" t="s">
         <v>164</v>
       </c>
@@ -18697,7 +18711,7 @@
         <v>190.98</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="39" t="s">
         <v>166</v>
       </c>
@@ -18717,7 +18731,7 @@
         <v>693.14</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="42" t="s">
         <v>168</v>
       </c>
@@ -18737,7 +18751,7 @@
         <v>850.96</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="39" t="s">
         <v>170</v>
       </c>
@@ -18757,7 +18771,7 @@
         <v>450.16</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="42" t="s">
         <v>172</v>
       </c>
@@ -18777,7 +18791,7 @@
         <v>944.47</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="39" t="s">
         <v>174</v>
       </c>
@@ -18797,7 +18811,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="42" t="s">
         <v>176</v>
       </c>
@@ -18817,7 +18831,7 @@
         <v>836.45</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="39" t="s">
         <v>178</v>
       </c>
@@ -18837,7 +18851,7 @@
         <v>400.38</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="42" t="s">
         <v>180</v>
       </c>
@@ -18857,7 +18871,7 @@
         <v>431.21</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="39" t="s">
         <v>182</v>
       </c>
@@ -18877,7 +18891,7 @@
         <v>903.11</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="42" t="s">
         <v>184</v>
       </c>
@@ -18897,7 +18911,7 @@
         <v>192.67</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="39" t="s">
         <v>186</v>
       </c>
@@ -18917,7 +18931,7 @@
         <v>601.41999999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="42" t="s">
         <v>188</v>
       </c>
@@ -18937,7 +18951,7 @@
         <v>852.55</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="39" t="s">
         <v>190</v>
       </c>
@@ -18957,7 +18971,7 @@
         <v>563.04</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="42" t="s">
         <v>192</v>
       </c>
@@ -18977,7 +18991,7 @@
         <v>609.69000000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="39" t="s">
         <v>194</v>
       </c>
@@ -18997,7 +19011,7 @@
         <v>216.48</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="42" t="s">
         <v>196</v>
       </c>
@@ -19017,7 +19031,7 @@
         <v>295.10000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="39" t="s">
         <v>198</v>
       </c>
@@ -19037,7 +19051,7 @@
         <v>67.37</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="42" t="s">
         <v>200</v>
       </c>
@@ -19057,7 +19071,7 @@
         <v>432.8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="39" t="s">
         <v>202</v>
       </c>
@@ -19077,7 +19091,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="42" t="s">
         <v>204</v>
       </c>
@@ -19097,7 +19111,7 @@
         <v>30.49</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="39" t="s">
         <v>206</v>
       </c>
@@ -19117,7 +19131,7 @@
         <v>711.63</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="42" t="s">
         <v>208</v>
       </c>
@@ -19137,7 +19151,7 @@
         <v>542.41999999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="39" t="s">
         <v>210</v>
       </c>
@@ -19157,7 +19171,7 @@
         <v>408.68</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="42" t="s">
         <v>212</v>
       </c>
@@ -19177,7 +19191,7 @@
         <v>749.1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="39" t="s">
         <v>214</v>
       </c>
@@ -19197,7 +19211,7 @@
         <v>345.86</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="42" t="s">
         <v>216</v>
       </c>
@@ -19217,7 +19231,7 @@
         <v>639.38</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="39" t="s">
         <v>218</v>
       </c>
@@ -19237,7 +19251,7 @@
         <v>903.91</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="42" t="s">
         <v>220</v>
       </c>
@@ -19257,7 +19271,7 @@
         <v>77.53</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="39" t="s">
         <v>222</v>
       </c>
@@ -19277,7 +19291,7 @@
         <v>525.77</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="42" t="s">
         <v>224</v>
       </c>
@@ -19297,7 +19311,7 @@
         <v>606.27</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="39" t="s">
         <v>226</v>
       </c>
@@ -19317,7 +19331,7 @@
         <v>911.84</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="42" t="s">
         <v>228</v>
       </c>
@@ -19337,7 +19351,7 @@
         <v>795.71</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="39" t="s">
         <v>230</v>
       </c>
@@ -19357,7 +19371,7 @@
         <v>765.15</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="42" t="s">
         <v>232</v>
       </c>
@@ -19377,7 +19391,7 @@
         <v>581.5</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="39" t="s">
         <v>234</v>
       </c>
@@ -19397,7 +19411,7 @@
         <v>385.87</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="42" t="s">
         <v>236</v>
       </c>
@@ -19417,7 +19431,7 @@
         <v>810.6</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="39" t="s">
         <v>238</v>
       </c>
@@ -19437,7 +19451,7 @@
         <v>106.09</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="42" t="s">
         <v>240</v>
       </c>
@@ -19457,7 +19471,7 @@
         <v>567.77</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="39" t="s">
         <v>242</v>
       </c>
@@ -19477,7 +19491,7 @@
         <v>315.49</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="42" t="s">
         <v>244</v>
       </c>
@@ -19497,7 +19511,7 @@
         <v>89.01</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="39" t="s">
         <v>246</v>
       </c>
@@ -19517,7 +19531,7 @@
         <v>527.27</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="42" t="s">
         <v>248</v>
       </c>
@@ -19537,7 +19551,7 @@
         <v>794.14</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="39" t="s">
         <v>250</v>
       </c>
@@ -19557,7 +19571,7 @@
         <v>141.80000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="42" t="s">
         <v>252</v>
       </c>
@@ -19577,7 +19591,7 @@
         <v>923.55</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="39" t="s">
         <v>254</v>
       </c>
@@ -19597,7 +19611,7 @@
         <v>412.6</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="42" t="s">
         <v>256</v>
       </c>
@@ -19617,7 +19631,7 @@
         <v>319.98</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="39" t="s">
         <v>258</v>
       </c>
@@ -19637,7 +19651,7 @@
         <v>948.21</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="42" t="s">
         <v>260</v>
       </c>
@@ -19657,7 +19671,7 @@
         <v>794.26</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="39" t="s">
         <v>262</v>
       </c>
@@ -19677,7 +19691,7 @@
         <v>963.73</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="42" t="s">
         <v>264</v>
       </c>
@@ -19697,7 +19711,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="39" t="s">
         <v>266</v>
       </c>
@@ -19717,7 +19731,7 @@
         <v>432.88</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="42" t="s">
         <v>268</v>
       </c>
@@ -19737,7 +19751,7 @@
         <v>149.21</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="39" t="s">
         <v>270</v>
       </c>
@@ -19757,7 +19771,7 @@
         <v>333.99</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="42" t="s">
         <v>272</v>
       </c>
@@ -19777,7 +19791,7 @@
         <v>325.08</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="39" t="s">
         <v>274</v>
       </c>
@@ -19797,7 +19811,7 @@
         <v>891.68</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="42" t="s">
         <v>276</v>
       </c>
@@ -19817,7 +19831,7 @@
         <v>327.92</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="39" t="s">
         <v>278</v>
       </c>
@@ -19837,7 +19851,7 @@
         <v>151.6</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="42" t="s">
         <v>280</v>
       </c>
@@ -19857,7 +19871,7 @@
         <v>46.17</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="39" t="s">
         <v>282</v>
       </c>
@@ -19877,7 +19891,7 @@
         <v>632.91999999999996</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="42" t="s">
         <v>284</v>
       </c>
@@ -19897,7 +19911,7 @@
         <v>43.01</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="39" t="s">
         <v>286</v>
       </c>
@@ -19917,7 +19931,7 @@
         <v>383.8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="42" t="s">
         <v>288</v>
       </c>
@@ -19937,7 +19951,7 @@
         <v>175.55</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="39" t="s">
         <v>290</v>
       </c>
@@ -19957,7 +19971,7 @@
         <v>56.91</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="42" t="s">
         <v>292</v>
       </c>
@@ -19977,7 +19991,7 @@
         <v>963.87</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="39" t="s">
         <v>294</v>
       </c>
@@ -19997,7 +20011,7 @@
         <v>995.04</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="42" t="s">
         <v>296</v>
       </c>
@@ -20017,7 +20031,7 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="39" t="s">
         <v>298</v>
       </c>
@@ -20037,7 +20051,7 @@
         <v>67.650000000000006</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="42" t="s">
         <v>300</v>
       </c>
@@ -20057,7 +20071,7 @@
         <v>415.71</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="39" t="s">
         <v>302</v>
       </c>
@@ -20077,7 +20091,7 @@
         <v>432.96</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="42" t="s">
         <v>304</v>
       </c>
@@ -20097,7 +20111,7 @@
         <v>777.59</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="39" t="s">
         <v>306</v>
       </c>
@@ -20117,7 +20131,7 @@
         <v>758.42</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="42" t="s">
         <v>308</v>
       </c>
@@ -20137,7 +20151,7 @@
         <v>573.67999999999995</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="39" t="s">
         <v>310</v>
       </c>
@@ -20157,7 +20171,7 @@
         <v>634.86</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="42" t="s">
         <v>312</v>
       </c>
@@ -20177,7 +20191,7 @@
         <v>162.01</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="39" t="s">
         <v>314</v>
       </c>
@@ -20197,7 +20211,7 @@
         <v>820.13</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="42" t="s">
         <v>316</v>
       </c>
@@ -20217,7 +20231,7 @@
         <v>24.63</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="39" t="s">
         <v>318</v>
       </c>
@@ -20237,7 +20251,7 @@
         <v>594.85</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="42" t="s">
         <v>320</v>
       </c>
@@ -20257,7 +20271,7 @@
         <v>526.95000000000005</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="39" t="s">
         <v>322</v>
       </c>
@@ -20277,7 +20291,7 @@
         <v>606.08000000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="42" t="s">
         <v>324</v>
       </c>
@@ -20297,7 +20311,7 @@
         <v>636.33000000000004</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="39" t="s">
         <v>326</v>
       </c>
@@ -20317,7 +20331,7 @@
         <v>357.21</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="42" t="s">
         <v>328</v>
       </c>
@@ -20337,7 +20351,7 @@
         <v>698.18</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="39" t="s">
         <v>330</v>
       </c>
@@ -20357,7 +20371,7 @@
         <v>472.98</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="42" t="s">
         <v>332</v>
       </c>
@@ -20377,7 +20391,7 @@
         <v>301.01</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="39" t="s">
         <v>334</v>
       </c>
@@ -20397,7 +20411,7 @@
         <v>504.8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="42" t="s">
         <v>336</v>
       </c>
@@ -20417,7 +20431,7 @@
         <v>303.17</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="39" t="s">
         <v>10</v>
       </c>
@@ -20437,7 +20451,7 @@
         <v>434.75</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="42" t="s">
         <v>339</v>
       </c>
@@ -20457,7 +20471,7 @@
         <v>453.12</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="39" t="s">
         <v>341</v>
       </c>
@@ -20477,7 +20491,7 @@
         <v>701.46</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="42" t="s">
         <v>343</v>
       </c>
@@ -20497,7 +20511,7 @@
         <v>151.27000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="39" t="s">
         <v>345</v>
       </c>
@@ -20517,7 +20531,7 @@
         <v>949.42</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="42" t="s">
         <v>347</v>
       </c>
@@ -20537,7 +20551,7 @@
         <v>726.39</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="39" t="s">
         <v>349</v>
       </c>
@@ -20557,7 +20571,7 @@
         <v>304.81</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="42" t="s">
         <v>351</v>
       </c>
@@ -20577,7 +20591,7 @@
         <v>339.05</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="39" t="s">
         <v>353</v>
       </c>
@@ -20597,7 +20611,7 @@
         <v>895.74</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="42" t="s">
         <v>355</v>
       </c>
@@ -20617,7 +20631,7 @@
         <v>749.34</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="39" t="s">
         <v>357</v>
       </c>
@@ -20637,7 +20651,7 @@
         <v>428.95</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="42" t="s">
         <v>359</v>
       </c>
@@ -20657,7 +20671,7 @@
         <v>680.55</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="39" t="s">
         <v>361</v>
       </c>
@@ -20677,7 +20691,7 @@
         <v>507.36</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="42" t="s">
         <v>363</v>
       </c>
@@ -20697,7 +20711,7 @@
         <v>124.74</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="39" t="s">
         <v>365</v>
       </c>
@@ -20717,7 +20731,7 @@
         <v>104.89</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="42" t="s">
         <v>367</v>
       </c>
@@ -20737,7 +20751,7 @@
         <v>792.57</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="39" t="s">
         <v>369</v>
       </c>
@@ -20757,7 +20771,7 @@
         <v>216.46</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="42" t="s">
         <v>371</v>
       </c>
@@ -20777,7 +20791,7 @@
         <v>845.09</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="39" t="s">
         <v>373</v>
       </c>
@@ -20797,7 +20811,7 @@
         <v>89.62</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="42" t="s">
         <v>375</v>
       </c>
@@ -20817,7 +20831,7 @@
         <v>212.83</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="39" t="s">
         <v>377</v>
       </c>
@@ -20837,7 +20851,7 @@
         <v>322.91000000000003</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="42" t="s">
         <v>379</v>
       </c>
@@ -20857,7 +20871,7 @@
         <v>979.64</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="39" t="s">
         <v>381</v>
       </c>
@@ -20877,7 +20891,7 @@
         <v>500.49</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="42" t="s">
         <v>383</v>
       </c>
@@ -20897,7 +20911,7 @@
         <v>347.55</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="39" t="s">
         <v>385</v>
       </c>
@@ -20917,7 +20931,7 @@
         <v>238.59</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="42" t="s">
         <v>387</v>
       </c>
@@ -20937,7 +20951,7 @@
         <v>765.14</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="39" t="s">
         <v>389</v>
       </c>
@@ -20957,7 +20971,7 @@
         <v>117.57</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="42" t="s">
         <v>391</v>
       </c>
@@ -20977,7 +20991,7 @@
         <v>967.97</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="39" t="s">
         <v>393</v>
       </c>
@@ -20997,7 +21011,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="42" t="s">
         <v>395</v>
       </c>
@@ -21017,7 +21031,7 @@
         <v>997.77</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="39" t="s">
         <v>397</v>
       </c>
@@ -21037,7 +21051,7 @@
         <v>997.26</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="42" t="s">
         <v>399</v>
       </c>
@@ -21057,7 +21071,7 @@
         <v>136.86000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="39" t="s">
         <v>401</v>
       </c>
@@ -21077,7 +21091,7 @@
         <v>83.85</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="42" t="s">
         <v>403</v>
       </c>
@@ -21097,7 +21111,7 @@
         <v>773.32</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="39" t="s">
         <v>405</v>
       </c>
@@ -21117,7 +21131,7 @@
         <v>497.44</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="42" t="s">
         <v>407</v>
       </c>
@@ -21137,7 +21151,7 @@
         <v>911.58</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="39" t="s">
         <v>409</v>
       </c>
@@ -21157,7 +21171,7 @@
         <v>731.62</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="42" t="s">
         <v>411</v>
       </c>
@@ -21177,7 +21191,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="39" t="s">
         <v>413</v>
       </c>
@@ -21197,7 +21211,7 @@
         <v>738.65</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="42" t="s">
         <v>415</v>
       </c>
@@ -21217,7 +21231,7 @@
         <v>518.74</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="30" t="s">
         <v>417</v>
       </c>
@@ -21251,229 +21265,229 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424C6D28-6E30-4DAF-A5F2-B6FE86E21EB1}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
-        <v>644</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="51" t="s">
-        <v>643</v>
-      </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="54" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="55" t="s">
+        <v>633</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="45" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>463</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>627</v>
-      </c>
-      <c r="D5" s="53"/>
+        <v>460</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>617</v>
+      </c>
+      <c r="D5" s="57"/>
       <c r="E5" s="45" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="B6" t="s">
         <v>461</v>
-      </c>
-      <c r="B6" t="s">
-        <v>464</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B8" t="s">
-        <v>486</v>
+        <v>664</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="24"/>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="24"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="24"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B11" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="24"/>
       <c r="E11" s="14" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="24"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="B13" t="s">
         <v>478</v>
-      </c>
-      <c r="B13" t="s">
-        <v>481</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="24"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="24"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B15" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="24"/>
       <c r="E15" s="14" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="24"/>
       <c r="E16" s="14" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="24"/>
       <c r="E17" s="14" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B18" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="24"/>
       <c r="E18" s="14" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="24"/>
       <c r="E19" s="14" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B20" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="24"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B22" s="16"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B23" s="16"/>
     </row>
-    <row r="25" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="51" t="s">
-        <v>642</v>
-      </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="55" t="s">
+        <v>632</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="27" t="s">
         <v>434</v>
       </c>
@@ -21484,7 +21498,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>439</v>
       </c>
@@ -21495,7 +21509,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>436</v>
       </c>
@@ -21506,7 +21520,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>437</v>
       </c>
@@ -21517,7 +21531,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>438</v>
       </c>
@@ -21528,7 +21542,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>443</v>
       </c>
@@ -21539,7 +21553,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>445</v>
       </c>
@@ -21550,7 +21564,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>444</v>
       </c>
@@ -21561,7 +21575,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>446</v>
       </c>
@@ -21572,12 +21586,12 @@
         <v>799</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="24"/>
       <c r="B52" s="12"/>
     </row>
@@ -21599,964 +21613,1023 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF3F554-9FA9-4B23-99A2-5E258CD0F3F7}">
   <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="47.453125" customWidth="1"/>
+    <col min="3" max="3" width="32.7265625" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
-        <v>641</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
+    <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="54" t="s">
+        <v>631</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="55" t="s">
+        <v>635</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>487</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>488</v>
+      </c>
+      <c r="E6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="52" t="str">
+        <f>C6 &amp; " " &amp; D6 &amp; " " &amp; E6</f>
+        <v>I want chocolat</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="str">
+        <f>C6&amp;D6&amp;E6</f>
+        <v>Iwantchocolat</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="24"/>
+    </row>
+    <row r="21" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="55" t="s">
+        <v>636</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>493</v>
+      </c>
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>494</v>
+      </c>
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>495</v>
+      </c>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>496</v>
+      </c>
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>497</v>
+      </c>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>498</v>
+      </c>
+      <c r="D29" s="24"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D30" s="24"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C32" t="s">
         <v>645</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C6" t="s">
-        <v>491</v>
-      </c>
-      <c r="D6" t="s">
-        <v>492</v>
-      </c>
-      <c r="E6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="str">
-        <f>C6 &amp; " " &amp; D6 &amp; " " &amp; E6</f>
-        <v>I want chocolate</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="str">
-        <f>C6 &amp; D6 &amp; E6</f>
-        <v>Iwantchocolate</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-    </row>
-    <row r="21" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="51" t="s">
-        <v>646</v>
-      </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>504</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>498</v>
-      </c>
-      <c r="D24" s="24"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>499</v>
-      </c>
-      <c r="D25" s="24"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>500</v>
-      </c>
-      <c r="D26" s="24"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>501</v>
-      </c>
-      <c r="D27" s="24"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>502</v>
-      </c>
-      <c r="D28" s="24"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>503</v>
-      </c>
-      <c r="D29" s="24"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D30" s="24"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D31" s="24"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="C32" t="s">
-        <v>655</v>
-      </c>
       <c r="D32" s="24"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
     </row>
-    <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="51" t="s">
-        <v>648</v>
-      </c>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="55" t="s">
+        <v>638</v>
+      </c>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C37" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C38" s="53" t="str">
+        <f>UPPER(C37)</f>
+        <v>NECROBARD THIS UNUSUAL CLASS COMBINES ONE OF THE MOST-LOVED OCCUPATIONS WITH ONE OF THE MOST REVILED.</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C39" s="24"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C41" s="12" t="str">
+        <f>LOWER(C37)</f>
+        <v>necrobard this unusual class combines one of the most-loved occupations with one of the most reviled.</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C42" s="24"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C38" s="12"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C39" s="24"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="C46" s="12" t="str">
+        <f>PROPER(C37)</f>
+        <v>Necrobard This Unusual Class Combines One Of The Most-Loved Occupations With One Of The Most Reviled.</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C41" s="12"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="C47" s="24"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C42" s="24"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C50" s="17" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="D50" s="17" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C51" t="s">
         <v>514</v>
-      </c>
-      <c r="C46" s="12"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C47" s="24"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C50" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>519</v>
       </c>
       <c r="D51" t="str">
         <f>PROPER(C51)</f>
         <v>Jonas Moss</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>667</v>
+      </c>
       <c r="C52" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" ref="D52:D53" si="0">PROPER(C52)</f>
+        <f t="shared" ref="D52:D54" si="0">PROPER(C52)</f>
         <v>Anna Karenina</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>668</v>
+      </c>
       <c r="C53" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
         <v>Robert Rebnor</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="D54" t="str">
-        <f>PROPER(C54)</f>
+        <f t="shared" si="0"/>
         <v>Pyotr Ilyich Tchaikovsky</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="51" t="s">
-        <v>647</v>
-      </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="55" t="s">
+        <v>637</v>
+      </c>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+    </row>
+    <row r="57" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C58" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C59" t="str">
+        <f>_xlfn.TEXTAFTER(C58,"e ")</f>
+        <v>Beauty and the Beast</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D60" s="12"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C62" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C63" t="str">
+        <f>_xlfn.TEXTBEFORE(C62," is ")</f>
+        <v>The Lion King</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D60" s="12"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="C66" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C67" t="str">
+        <f>_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(C66," the"),"e ")</f>
+        <v>Cinderalla</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="C71" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C71" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C72" t="str">
         <f>_xlfn.TEXTBEFORE(C71,";")</f>
         <v>"apples"</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C73" t="str">
         <f>_xlfn.TEXTBEFORE(C71,";",2)</f>
         <v>"apples";"oranges"</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="14" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C77" t="str">
         <f>_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(C71,";",2),";")</f>
         <v>"oranges"</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="51" t="s">
+    <row r="79" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A79" s="55" t="s">
+        <v>639</v>
+      </c>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="55"/>
+    </row>
+    <row r="80" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C81" t="s">
+        <v>487</v>
+      </c>
+      <c r="D81" t="s">
+        <v>526</v>
+      </c>
+      <c r="E81" t="s">
+        <v>528</v>
+      </c>
+      <c r="F81" t="s">
+        <v>527</v>
+      </c>
+      <c r="G81" t="s">
+        <v>532</v>
+      </c>
+      <c r="H81" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="C83" t="str">
+        <f>_xlfn.TEXTJOIN(" ",, C81:H81)</f>
+        <v>I like chips and ice cream.</v>
+      </c>
+      <c r="D83" s="12"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="14" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="C86" t="s">
+        <v>487</v>
+      </c>
+      <c r="D86" t="s">
+        <v>526</v>
+      </c>
+      <c r="G86" t="s">
+        <v>528</v>
+      </c>
+      <c r="H86" t="s">
+        <v>527</v>
+      </c>
+      <c r="I86" t="s">
+        <v>529</v>
+      </c>
+      <c r="J86" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D88" s="12" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" s="14" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" s="14" t="s">
         <v>649</v>
       </c>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="51"/>
-      <c r="G79" s="51"/>
-      <c r="H79" s="51"/>
-      <c r="I79" s="51"/>
-      <c r="J79" s="51"/>
-    </row>
-    <row r="80" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C81" t="s">
-        <v>491</v>
-      </c>
-      <c r="D81" t="s">
-        <v>531</v>
-      </c>
-      <c r="E81" t="s">
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C92" s="18" t="s">
         <v>533</v>
       </c>
-      <c r="F81" t="s">
+      <c r="D92" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C93" t="s">
+        <v>546</v>
+      </c>
+      <c r="D93" t="s">
+        <v>538</v>
+      </c>
+      <c r="E93" t="s">
+        <v>539</v>
+      </c>
+      <c r="F93" t="s">
+        <v>540</v>
+      </c>
+      <c r="G93" t="str">
+        <f>PROPER(_xlfn.TEXTJOIN(" ",TRUE,F93,C93,D93,E93))</f>
+        <v>Prof. Phineas Nigellus Black</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
+        <v>541</v>
+      </c>
+      <c r="E94" t="s">
+        <v>543</v>
+      </c>
+      <c r="F94" t="s">
+        <v>542</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" ref="G94:G95" si="1">PROPER(_xlfn.TEXTJOIN(" ",TRUE,F94,C94,D94,E94))</f>
+        <v>Mr Reginald Cattermole</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C95" t="s">
+        <v>544</v>
+      </c>
+      <c r="E95" t="s">
+        <v>545</v>
+      </c>
+      <c r="F95" t="s">
+        <v>547</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="1"/>
+        <v>Mrs Arabella  Figg</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C98" t="str">
+        <f>_xlfn.CONCAT(C81:H81)</f>
+        <v>Ilikechipsandicecream.</v>
+      </c>
+      <c r="D98" t="str">
+        <f>_xlfn.TEXTJOIN("",,C81:H81)</f>
+        <v>Ilikechipsandicecream.</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C100" t="s">
+        <v>487</v>
+      </c>
+      <c r="D100" t="s">
+        <v>526</v>
+      </c>
+      <c r="E100" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E101" t="s">
+        <v>553</v>
+      </c>
+      <c r="F101" t="s">
         <v>532</v>
       </c>
-      <c r="G81" t="s">
-        <v>539</v>
-      </c>
-      <c r="H81" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
-        <v>556</v>
-      </c>
-      <c r="C83" t="str">
-        <f>_xlfn.TEXTJOIN(" ",,C81:H81)</f>
-        <v>I like chips and ice cream.</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="C86" t="s">
-        <v>491</v>
-      </c>
-      <c r="D86" t="s">
-        <v>531</v>
-      </c>
-      <c r="G86" t="s">
-        <v>533</v>
-      </c>
-      <c r="H86" t="s">
-        <v>532</v>
-      </c>
-      <c r="I86" t="s">
-        <v>534</v>
-      </c>
-      <c r="J86" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D88" s="12" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>540</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>541</v>
-      </c>
-      <c r="E92" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="F92" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="G92" s="18" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
-        <v>553</v>
-      </c>
-      <c r="D93" t="s">
-        <v>545</v>
-      </c>
-      <c r="E93" t="s">
-        <v>546</v>
-      </c>
-      <c r="F93" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
-        <v>548</v>
-      </c>
-      <c r="E94" t="s">
-        <v>550</v>
-      </c>
-      <c r="F94" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>551</v>
-      </c>
-      <c r="E95" t="s">
-        <v>552</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="G101" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C100" t="s">
-        <v>491</v>
-      </c>
-      <c r="D100" t="s">
-        <v>531</v>
-      </c>
-      <c r="E100" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="E101" t="s">
-        <v>560</v>
-      </c>
-      <c r="F101" t="s">
-        <v>539</v>
-      </c>
-      <c r="G101" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C103" t="str">
         <f>_xlfn.CONCAT(C100:E100,E101:G101)</f>
         <v>Ilikechipsand icecream</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="51" t="s">
-        <v>650</v>
-      </c>
-      <c r="B105" s="51"/>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="51"/>
-      <c r="G105" s="51"/>
-      <c r="H105" s="51"/>
-      <c r="I105" s="51"/>
-      <c r="J105" s="51"/>
-    </row>
-    <row r="106" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="55" t="s">
+        <v>640</v>
+      </c>
+      <c r="B105" s="55"/>
+      <c r="C105" s="55"/>
+      <c r="D105" s="55"/>
+      <c r="E105" s="55"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="55"/>
+      <c r="J105" s="55"/>
+    </row>
+    <row r="106" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="C107" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C109" s="18" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C110" s="12"/>
     </row>
-    <row r="112" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="51" t="s">
-        <v>651</v>
-      </c>
-      <c r="B112" s="51"/>
-      <c r="C112" s="51"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="51"/>
-      <c r="G112" s="51"/>
-      <c r="H112" s="51"/>
-      <c r="I112" s="51"/>
-      <c r="J112" s="51"/>
-    </row>
-    <row r="113" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A112" s="55" t="s">
+        <v>641</v>
+      </c>
+      <c r="B112" s="55"/>
+      <c r="C112" s="55"/>
+      <c r="D112" s="55"/>
+      <c r="E112" s="55"/>
+      <c r="F112" s="55"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="55"/>
+      <c r="I112" s="55"/>
+      <c r="J112" s="55"/>
+    </row>
+    <row r="113" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="C113" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="C114" t="str">
         <f>SUBSTITUTE(C113,"Airplane","Starship")</f>
         <v>Jefferson Starship is great.</v>
       </c>
-      <c r="E114" s="21" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E114" s="21"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="47" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="C117" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E118" s="21" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C120" t="str">
         <f>PROPER("When I'm on an airplane, I like listening to Jefferson Airplane!")</f>
         <v>When I'M On An Airplane, I Like Listening To Jefferson Airplane!</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C122" t="str">
+        <f>SUBSTITUTE(C120,"Airplane","Starship",2)</f>
+        <v>When I'M On An Airplane, I Like Listening To Jefferson Starship!</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E123" s="21" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E125" s="21" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="51" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A127" s="55" t="s">
+        <v>642</v>
+      </c>
+      <c r="B127" s="55"/>
+      <c r="C127" s="55"/>
+      <c r="D127" s="55"/>
+      <c r="E127" s="55"/>
+      <c r="F127" s="55"/>
+      <c r="G127" s="55"/>
+      <c r="H127" s="55"/>
+      <c r="I127" s="55"/>
+      <c r="J127" s="55"/>
+    </row>
+    <row r="128" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B131" s="49" t="s">
         <v>652</v>
       </c>
-      <c r="B127" s="51"/>
-      <c r="C127" s="51"/>
-      <c r="D127" s="51"/>
-      <c r="E127" s="51"/>
-      <c r="F127" s="51"/>
-      <c r="G127" s="51"/>
-      <c r="H127" s="51"/>
-      <c r="I127" s="51"/>
-      <c r="J127" s="51"/>
-    </row>
-    <row r="128" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="49" t="s">
-        <v>662</v>
-      </c>
       <c r="C131" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B132" s="49" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="C132" s="12"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B133" s="49" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B135" s="49" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="C135" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B136" s="49" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="C136" s="12"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B137" s="49" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C142" s="48" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="C143" s="24"/>
       <c r="D143" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C144" s="24"/>
       <c r="D144" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C145" s="24"/>
       <c r="D145" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C146" s="24"/>
       <c r="D146" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C147" s="24"/>
       <c r="D147" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C148" s="24"/>
       <c r="D148" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C149" s="24"/>
       <c r="D149" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="14" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="14" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="14" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="14" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="51" t="s">
-        <v>653</v>
-      </c>
-      <c r="B158" s="51"/>
-      <c r="C158" s="51"/>
-      <c r="D158" s="51"/>
-      <c r="E158" s="51"/>
-      <c r="F158" s="51"/>
-      <c r="G158" s="51"/>
-      <c r="H158" s="51"/>
-      <c r="I158" s="51"/>
-      <c r="J158" s="51"/>
-    </row>
-    <row r="159" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A158" s="55" t="s">
+        <v>643</v>
+      </c>
+      <c r="B158" s="55"/>
+      <c r="C158" s="55"/>
+      <c r="D158" s="55"/>
+      <c r="E158" s="55"/>
+      <c r="F158" s="55"/>
+      <c r="G158" s="55"/>
+      <c r="H158" s="55"/>
+      <c r="I158" s="55"/>
+      <c r="J158" s="55"/>
+    </row>
+    <row r="159" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" s="14" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
       <c r="D160" s="14"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="17" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B161" s="17" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C161" s="17"/>
       <c r="D161" s="17" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="E161" s="17" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
+        <v>585</v>
+      </c>
+      <c r="B162" t="s">
+        <v>592</v>
+      </c>
+      <c r="E162" s="12"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>586</v>
+      </c>
+      <c r="B163" t="s">
+        <v>593</v>
+      </c>
+      <c r="E163" s="12"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>587</v>
+      </c>
+      <c r="B164" t="s">
+        <v>594</v>
+      </c>
+      <c r="E164" s="12"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>588</v>
+      </c>
+      <c r="B165" t="s">
         <v>595</v>
       </c>
-      <c r="B162" t="s">
-        <v>602</v>
-      </c>
-      <c r="E162" s="12"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="E165" s="12"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="B166" t="s">
         <v>596</v>
       </c>
-      <c r="B163" t="s">
-        <v>603</v>
-      </c>
-      <c r="E163" s="12"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="E166" s="12"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="B167" t="s">
         <v>597</v>
       </c>
-      <c r="B164" t="s">
-        <v>604</v>
-      </c>
-      <c r="E164" s="12"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>598</v>
-      </c>
-      <c r="B165" t="s">
-        <v>605</v>
-      </c>
-      <c r="E165" s="12"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="B166" t="s">
-        <v>606</v>
-      </c>
-      <c r="E166" s="12"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="12" t="s">
+      <c r="E167" s="12"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="14" t="s">
         <v>600</v>
-      </c>
-      <c r="B167" t="s">
-        <v>607</v>
-      </c>
-      <c r="E167" s="12"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="14" t="s">
-        <v>610</v>
       </c>
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
       <c r="D169" s="14"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="14" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
       <c r="D170" s="14"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="14" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
       <c r="D171" s="14"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="22" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
@@ -22564,16 +22637,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A105:J105"/>
     <mergeCell ref="A112:J112"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A127:J127"/>
     <mergeCell ref="A158:J158"/>
     <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A105:J105"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
